--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Context Root:</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Param4</t>
   </si>
   <si>
-    <t>Param5</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -51,15 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -81,21 +69,12 @@
     <t>Erfolg</t>
   </si>
   <si>
-    <t>regid_push</t>
-  </si>
-  <si>
-    <t>sync</t>
-  </si>
-  <si>
     <t>optional</t>
   </si>
   <si>
     <t>Prio</t>
   </si>
   <si>
-    <t>register</t>
-  </si>
-  <si>
     <t>Registriert Benutzer und schreibt Default-Werte (Kategorienfilter - alle ausgewählt)</t>
   </si>
   <si>
@@ -111,9 +90,6 @@
     <t>Freundesliste</t>
   </si>
   <si>
-    <t>[freund_name]</t>
-  </si>
-  <si>
     <t>Übertragt die Freundesliste</t>
   </si>
   <si>
@@ -123,25 +99,13 @@
     <t>Freund entfernen</t>
   </si>
   <si>
-    <t>searched_nick</t>
-  </si>
-  <si>
     <t>Ergebnisliste</t>
   </si>
   <si>
-    <t>[spieler_name]</t>
-  </si>
-  <si>
     <t>Liste gefundener Mitspieler, deren Name die gesuchte Phrase enthält (like '%abc%')</t>
   </si>
   <si>
-    <t>Name des Gegners</t>
-  </si>
-  <si>
     <t>Um Popup 'Du spielst mit …' anzuzeigen</t>
-  </si>
-  <si>
-    <t>"Hans123"</t>
   </si>
   <si>
     <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
@@ -150,15 +114,6 @@
   </si>
   <si>
     <t>username_opponent</t>
-  </si>
-  <si>
-    <t>Spiele: {
-Teilnahme(ich) &amp;&amp; status != CLOSED
-}
-(Relevante DS der Spieltabelle)</t>
-  </si>
-  <si>
-    <t>game_id</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -185,15 +140,6 @@
 UND
 Accept: Spielstatus ACTIVE
 Decline: Spielstatus DECLINED</t>
-  </si>
-  <si>
-    <t>[ {
- categorie_name : {
-  [frage : {
-   // Fragenattribute
-  } ]
- }
-} ]</t>
   </si>
   <si>
     <t>Liefert aus der Schnittmenge 3 zufällige Kategorien inkl. je 3 Fragen</t>
@@ -209,94 +155,180 @@
 er sendet an Gegenspieler Push-Benachrichtigung.</t>
   </si>
   <si>
+    <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
+  </si>
+  <si>
+    <t>settings/set_categories</t>
+  </si>
+  <si>
+    <t>user/search</t>
+  </si>
+  <si>
+    <t>game/create_game_random_opponent</t>
+  </si>
+  <si>
+    <t>game/create_game</t>
+  </si>
+  <si>
+    <t>game/send_round_result</t>
+  </si>
+  <si>
+    <t>user/statistics</t>
+  </si>
+  <si>
+    <t>Studiduell/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Umgesetzt</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>settings/friend</t>
+  </si>
+  <si>
+    <t>Freund hinzufügen</t>
+  </si>
+  <si>
+    <t>settings/list_friends</t>
+  </si>
+  <si>
+    <t>{games:[Spiel_DS]}</t>
+  </si>
+  <si>
+    <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)
+Gibt eine HTML-Seite zurück</t>
+  </si>
+  <si>
+    <t>{users:[user_name]}</t>
+  </si>
+  <si>
+    <t>searched_nick_part</t>
+  </si>
+  <si>
+    <t>Name des Gegners oder null</t>
+  </si>
+  <si>
+    <t>{user:Hans_Wurst}
+ALTERNATIV:
+{user:null} (null nicht in Hochkommata)</t>
+  </si>
+  <si>
     <t>{
- [frage : {
+ [question : {
   // Fragenattribute
  }],
- [antwort : {
+ [answer : {
   // Antworten des Gegners
  }],
 }</t>
   </si>
   <si>
-    <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
-  </si>
-  <si>
     <t>{
- spiel : {
-  verloren : x,
-  gewonnen : x,
-  unentschieden : x,
+ game : {
+  lost : x,
+  won : x,
+  draw : x,
   total : x
  },
- fragen : {
-  proz_richtig : x,
+ questions : {
+  perc_right : x,
   total : x
  }
 }</t>
   </si>
   <si>
-    <t>settings/set_categories</t>
-  </si>
-  <si>
-    <t>settings/get_friends_list</t>
-  </si>
-  <si>
-    <t>settings/unfriend</t>
-  </si>
-  <si>
-    <t>user/search</t>
-  </si>
-  <si>
-    <t>game/create_game_random_opponent</t>
-  </si>
-  <si>
-    <t>game/create_game</t>
-  </si>
-  <si>
-    <t>game/get_game_overview</t>
-  </si>
-  <si>
-    <t>game/answer_duell_request</t>
-  </si>
-  <si>
-    <t>game/get_random_categories</t>
-  </si>
-  <si>
-    <t>game/send_round_result</t>
-  </si>
-  <si>
-    <t>game/continue_round</t>
-  </si>
-  <si>
-    <t>user/statistics</t>
-  </si>
-  <si>
-    <t>Studiduell/</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>text/html</t>
-  </si>
-  <si>
-    <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
-  </si>
-  <si>
-    <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Umgesetzt</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>ja</t>
+    <t>[ {
+ categorie_name : {
+  [question : {
+   // Fragenattribute
+  } ]
+ }
+} ]</t>
+  </si>
+  <si>
+    <t>{friends:[friend_name]}
+ALTERNATIV:
+{friends:null}</t>
+  </si>
+  <si>
+    <t>user/register</t>
+  </si>
+  <si>
+    <t>SpringSecurity</t>
+  </si>
+  <si>
+    <t>optional (ja)</t>
+  </si>
+  <si>
+    <t>game/get_game_overview/{gameID}</t>
+  </si>
+  <si>
+    <t>game/answer_duell_request/{gameID}</t>
+  </si>
+  <si>
+    <t>game/get_random_categories/{gameID}</t>
+  </si>
+  <si>
+    <t>game/continue_round/{gameID}</t>
+  </si>
+  <si>
+    <t>user/login</t>
+  </si>
+  <si>
+    <t>Loggt einen Benutzer ein.</t>
+  </si>
+  <si>
+    <t>user/logout/{username}</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>RequestBody</t>
+  </si>
+  <si>
+    <t>200 / 409</t>
+  </si>
+  <si>
+    <t>200 / 403</t>
+  </si>
+  <si>
+    <t>Spiele: {
+Teilnahme(ich) &amp;&amp; status != CLOSED
+}
+(Relevante DS der Spieltabelle)
+(i. e. 200)
+/
+404</t>
+  </si>
+  <si>
+    <t>User
+-&gt;Benutzername
+-&gt;Passwort</t>
+  </si>
+  <si>
+    <t>user/{username}/sync</t>
+  </si>
+  <si>
+    <t>UserEntity
+-&gt; regid_push</t>
   </si>
 </sst>
 </file>
@@ -355,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -369,11 +401,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -436,31 +472,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:N20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <tableColumns count="14">
-    <tableColumn id="1" name="Resource" dataDxfId="13"/>
-    <tableColumn id="2" name="Param1" dataDxfId="12"/>
-    <tableColumn id="3" name="Param2" dataDxfId="11"/>
-    <tableColumn id="4" name="Param3" dataDxfId="10"/>
-    <tableColumn id="5" name="Param4" dataDxfId="9"/>
-    <tableColumn id="6" name="Param5" dataDxfId="8"/>
-    <tableColumn id="7" name="Method" dataDxfId="7"/>
-    <tableColumn id="8" name="Return_Content_Type" dataDxfId="6"/>
-    <tableColumn id="9" name="Returns" dataDxfId="5"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="4"/>
-    <tableColumn id="10" name="Description" dataDxfId="3"/>
-    <tableColumn id="12" name="Prio" dataDxfId="2"/>
-    <tableColumn id="13" name="Kommentar" dataDxfId="1"/>
-    <tableColumn id="15" name="Umgesetzt" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="15">
+    <tableColumn id="1" name="Resource" dataDxfId="14"/>
+    <tableColumn id="2" name="Param1" dataDxfId="13"/>
+    <tableColumn id="3" name="Param2" dataDxfId="12"/>
+    <tableColumn id="4" name="Param3" dataDxfId="11"/>
+    <tableColumn id="5" name="Param4" dataDxfId="10"/>
+    <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
+    <tableColumn id="7" name="Method" dataDxfId="8"/>
+    <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
+    <tableColumn id="9" name="Returns" dataDxfId="6"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="5"/>
+    <tableColumn id="10" name="Description" dataDxfId="4"/>
+    <tableColumn id="12" name="Prio" dataDxfId="3"/>
+    <tableColumn id="13" name="Kommentar" dataDxfId="2"/>
+    <tableColumn id="15" name="Umgesetzt" dataDxfId="1"/>
+    <tableColumn id="14" name="SpringSecurity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,7 +535,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -570,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -744,36 +781,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -788,34 +825,37 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -823,538 +863,604 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="L10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="N16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N20">
-      <formula1>"nein,ja"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N22">
+      <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1371,7 +1477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1383,7 +1489,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -324,11 +324,11 @@
 -&gt;Passwort</t>
   </si>
   <si>
-    <t>user/{username}/sync</t>
-  </si>
-  <si>
     <t>UserEntity
 -&gt; regid_push</t>
+  </si>
+  <si>
+    <t>user/sync</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
@@ -954,14 +954,14 @@
     </row>
     <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>Context Root:</t>
   </si>
@@ -87,13 +87,7 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>Freundesliste</t>
-  </si>
-  <si>
     <t>Übertragt die Freundesliste</t>
-  </si>
-  <si>
-    <t>friend</t>
   </si>
   <si>
     <t>Freund entfernen</t>
@@ -158,9 +152,6 @@
     <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
   </si>
   <si>
-    <t>settings/set_categories</t>
-  </si>
-  <si>
     <t>user/search</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>game/send_round_result</t>
   </si>
   <si>
-    <t>user/statistics</t>
-  </si>
-  <si>
     <t>Studiduell/</t>
   </si>
   <si>
@@ -200,13 +188,7 @@
     <t>ja</t>
   </si>
   <si>
-    <t>settings/friend</t>
-  </si>
-  <si>
     <t>Freund hinzufügen</t>
-  </si>
-  <si>
-    <t>settings/list_friends</t>
   </si>
   <si>
     <t>{games:[Spiel_DS]}</t>
@@ -263,11 +245,6 @@
 } ]</t>
   </si>
   <si>
-    <t>{friends:[friend_name]}
-ALTERNATIV:
-{friends:null}</t>
-  </si>
-  <si>
     <t>user/register</t>
   </si>
   <si>
@@ -304,31 +281,58 @@
     <t>RequestBody</t>
   </si>
   <si>
-    <t>200 / 409</t>
-  </si>
-  <si>
     <t>200 / 403</t>
+  </si>
+  <si>
+    <t>User
+-&gt;Benutzername
+-&gt;Passwort</t>
+  </si>
+  <si>
+    <t>UserEntity
+-&gt; regid_push</t>
+  </si>
+  <si>
+    <t>user/sync</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>user/stats</t>
+  </si>
+  <si>
+    <t>settings/update_categories</t>
+  </si>
+  <si>
+    <t>201 / 409</t>
   </si>
   <si>
     <t>Spiele: {
 Teilnahme(ich) &amp;&amp; status != CLOSED
 }
 (Relevante DS der Spieltabelle)
-(i. e. 200)
-/
-404</t>
-  </si>
-  <si>
-    <t>User
--&gt;Benutzername
--&gt;Passwort</t>
-  </si>
-  <si>
-    <t>UserEntity
--&gt; regid_push</t>
-  </si>
-  <si>
-    <t>user/sync</t>
+(i. e. 200)</t>
+  </si>
+  <si>
+    <t>200/406</t>
+  </si>
+  <si>
+    <t>Erfolg (200/406)</t>
+  </si>
+  <si>
+    <t>settings/friends</t>
+  </si>
+  <si>
+    <t>settings/friends/{friend}</t>
+  </si>
+  <si>
+    <t>201/404/409</t>
+  </si>
+  <si>
+    <t>[friend_name]
+ALTERNATIV:
+[]</t>
   </si>
 </sst>
 </file>
@@ -783,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -825,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -846,13 +850,13 @@
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -863,37 +867,37 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -904,8 +908,8 @@
       <c r="I6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
+      <c r="J6" s="1">
+        <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -913,15 +917,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -935,33 +939,33 @@
         <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -970,26 +974,26 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -997,28 +1001,30 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>202</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1026,7 +1032,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
@@ -1045,15 +1051,15 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -1069,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -1080,15 +1086,15 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1096,137 +1102,131 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>200</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="J13" s="1">
+        <v>201</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1240,31 +1240,31 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1283,20 +1283,20 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1304,33 +1304,33 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1349,20 +1349,20 @@
         <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1370,33 +1370,33 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1415,20 +1415,20 @@
         <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1442,19 +1442,19 @@
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>Context Root:</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Return_Content_Type</t>
-  </si>
-  <si>
-    <t>Returns</t>
   </si>
   <si>
     <t>Description</t>
@@ -105,9 +102,6 @@
     <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
 UND
 Setzen des Feldes letzteAktivitaet</t>
-  </si>
-  <si>
-    <t>username_opponent</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -152,18 +146,6 @@
     <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
   </si>
   <si>
-    <t>user/search</t>
-  </si>
-  <si>
-    <t>game/create_game_random_opponent</t>
-  </si>
-  <si>
-    <t>game/create_game</t>
-  </si>
-  <si>
-    <t>game/send_round_result</t>
-  </si>
-  <si>
     <t>Studiduell/</t>
   </si>
   <si>
@@ -189,27 +171,10 @@
   </si>
   <si>
     <t>Freund hinzufügen</t>
-  </si>
-  <si>
-    <t>{games:[Spiel_DS]}</t>
   </si>
   <si>
     <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)
 Gibt eine HTML-Seite zurück</t>
-  </si>
-  <si>
-    <t>{users:[user_name]}</t>
-  </si>
-  <si>
-    <t>searched_nick_part</t>
-  </si>
-  <si>
-    <t>Name des Gegners oder null</t>
-  </si>
-  <si>
-    <t>{user:Hans_Wurst}
-ALTERNATIV:
-{user:null} (null nicht in Hochkommata)</t>
   </si>
   <si>
     <t>{
@@ -254,18 +219,6 @@
     <t>optional (ja)</t>
   </si>
   <si>
-    <t>game/get_game_overview/{gameID}</t>
-  </si>
-  <si>
-    <t>game/answer_duell_request/{gameID}</t>
-  </si>
-  <si>
-    <t>game/get_random_categories/{gameID}</t>
-  </si>
-  <si>
-    <t>game/continue_round/{gameID}</t>
-  </si>
-  <si>
     <t>user/login</t>
   </si>
   <si>
@@ -300,9 +253,6 @@
   </si>
   <si>
     <t>user/stats</t>
-  </si>
-  <si>
-    <t>settings/update_categories</t>
   </si>
   <si>
     <t>201 / 409</t>
@@ -333,6 +283,112 @@
     <t>[friend_name]
 ALTERNATIV:
 []</t>
+  </si>
+  <si>
+    <t>[user_name]</t>
+  </si>
+  <si>
+    <t>user/search/{pattern}</t>
+  </si>
+  <si>
+    <t>text/plain
+201
+404, wenn kein passender Gegner gefunden</t>
+  </si>
+  <si>
+    <t>settings/updateCategories</t>
+  </si>
+  <si>
+    <t>game/create/random</t>
+  </si>
+  <si>
+    <t>game/create/with/{opponent}</t>
+  </si>
+  <si>
+    <t>game/getGameOverview/{gameID}</t>
+  </si>
+  <si>
+    <t>game/getRandomCategories/{gameID}</t>
+  </si>
+  <si>
+    <t>game/sendRoundResult</t>
+  </si>
+  <si>
+    <t>game/continueRound/{gameID}</t>
+  </si>
+  <si>
+    <t>game/answerInvite/{gameID}</t>
+  </si>
+  <si>
+    <t>Returns / HTTP-Codes</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "spielID": 1,
+    "spieltyp_name": {
+      "name": "M"
+    },
+    "spieler1": {
+      "benutzername": "spieler1",
+      "passwort_hash": null,
+      "push_id": null,
+      "letzteAktivitaet": null
+    },
+    "spieler2": {
+      "benutzername": "spieler2",
+      "passwort_hash": null,
+      "push_id": null,
+      "letzteAktivitaet": null
+    },
+    "sieger": {
+      "benutzername": "sieger",
+      "passwort_hash": null,
+      "push_id": null,
+      "letzteAktivitaet": null
+    },
+    "verlierer": {
+      "benutzername": "verlierer",
+      "passwort_hash": null,
+      "push_id": null,
+      "letzteAktivitaet": null
+    },
+    "wartenAuf": {
+      "benutzername": "wartenAuf",
+      "passwort_hash": null,
+      "push_id": null,
+      "letzteAktivitaet": null
+    },
+    "aktuelleRunde": 2,
+    "spielstatus_name": {
+      "name": "P"
+    },
+    "letzteAktivitaet": 1393354748762
+  },
+  {
+    "spielID": 2,
+    "spieltyp_name": {
+      "name": "S"
+    },
+    "spieler1": null,
+    "spieler2": null,
+    "sieger": null,
+    "verlierer": null,
+    "wartenAuf": null,
+    "aktuelleRunde": 0,
+    "spielstatus_name": {
+      "name": " "
+    },
+    "letzteAktivitaet": 1393354748762
+  }
+]</t>
+  </si>
+  <si>
+    <t>Name des Gegners
+201/404</t>
+  </si>
+  <si>
+    <t>Hans Wurst</t>
   </si>
 </sst>
 </file>
@@ -391,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,13 +462,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -477,6 +538,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A4:O22"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Resource" dataDxfId="14"/>
     <tableColumn id="2" name="Param1" dataDxfId="13"/>
@@ -486,13 +548,13 @@
     <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
     <tableColumn id="7" name="Method" dataDxfId="8"/>
     <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
-    <tableColumn id="9" name="Returns" dataDxfId="6"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="5"/>
-    <tableColumn id="10" name="Description" dataDxfId="4"/>
-    <tableColumn id="12" name="Prio" dataDxfId="3"/>
-    <tableColumn id="13" name="Kommentar" dataDxfId="2"/>
-    <tableColumn id="15" name="Umgesetzt" dataDxfId="1"/>
-    <tableColumn id="14" name="SpringSecurity" dataDxfId="0"/>
+    <tableColumn id="9" name="Returns / HTTP-Codes" dataDxfId="2"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="0"/>
+    <tableColumn id="10" name="Description" dataDxfId="1"/>
+    <tableColumn id="12" name="Prio" dataDxfId="6"/>
+    <tableColumn id="13" name="Kommentar" dataDxfId="5"/>
+    <tableColumn id="15" name="Umgesetzt" dataDxfId="4"/>
+    <tableColumn id="14" name="SpringSecurity" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -787,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +863,7 @@
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -809,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -829,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -838,25 +900,25 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -867,65 +929,63 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="1">
-        <v>201</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -933,67 +993,67 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1001,133 +1061,131 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1">
-        <v>202</v>
+        <v>12</v>
+      </c>
+      <c r="I9" s="6">
+        <v>200</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
-        <v>200</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1135,32 +1193,32 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6">
+        <v>200</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="1">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1168,65 +1226,59 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1234,69 +1286,63 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1304,65 +1350,61 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6">
+        <v>200</v>
+      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1370,65 +1412,65 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1436,30 +1478,30 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N15 N16:N22">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Context Root:</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Liefert die Rundendaten sowie alle beantworteten Fragen und die Ergebnisse beider Spieler</t>
-  </si>
-  <si>
-    <t>flag_answer</t>
   </si>
   <si>
     <t>Akzeptiert oder lehnt die Duellanfrage des Gegenspielers ab.
@@ -175,16 +172,6 @@
   <si>
     <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)
 Gibt eine HTML-Seite zurück</t>
-  </si>
-  <si>
-    <t>{
- [question : {
-  // Fragenattribute
- }],
- [answer : {
-  // Antworten des Gegners
- }],
-}</t>
   </si>
   <si>
     <t>{
@@ -201,15 +188,6 @@
 }</t>
   </si>
   <si>
-    <t>[ {
- categorie_name : {
-  [question : {
-   // Fragenattribute
-  } ]
- }
-} ]</t>
-  </si>
-  <si>
     <t>user/register</t>
   </si>
   <si>
@@ -306,9 +284,6 @@
   </si>
   <si>
     <t>game/getGameOverview/{gameID}</t>
-  </si>
-  <si>
-    <t>game/getRandomCategories/{gameID}</t>
   </si>
   <si>
     <t>game/sendRoundResult</t>
@@ -390,6 +365,263 @@
   <si>
     <t>Hans Wurst</t>
   </si>
+  <si>
+    <t>flag_answer ("true"/"false")</t>
+  </si>
+  <si>
+    <t>200/404/406 (flag NOT IN ("true", "false")</t>
+  </si>
+  <si>
+    <t>game/randomCategoriesFor/{gameID}</t>
+  </si>
+  <si>
+    <t>[
+   categoryName : &lt;cat name&gt;,
+   questions : [3x questions]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+  "categoryName" : "Logik und Algebra",
+  "questions" : [{
+    "fragenID" : 1,
+    "kategorie_name" : "Logik und Algebra",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 1",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 2,
+    "kategorie_name" : "Logik und Algebra",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 2",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 3,
+    "kategorie_name" : "Logik und Algebra",
+    "unterkategorie_name" : "uk2",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 3",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }
+  ]
+ }, {
+  "categoryName" : "Methoden der Wirtschaftsinformatik",
+  "questions" : [{
+    "fragenID" : 4,
+    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 4",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 5,
+    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 5",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 6,
+    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
+    "unterkategorie_name" : "uk2",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 6",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }
+  ]
+ }, {
+  "categoryName" : "Verteilte Systeme",
+  "questions" : [{
+    "fragenID" : 7,
+    "kategorie_name" : "Verteilte Systeme",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 7",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 8,
+    "kategorie_name" : "Verteilte Systeme",
+    "unterkategorie_name" : "uk",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 8",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }, {
+    "fragenID" : 9,
+    "kategorie_name" : "Verteilte Systeme",
+    "unterkategorie_name" : "uk2",
+    "flag_fragenTyp_mult" : false,
+    "frage" : "Frage 9",
+    "antwortmoeglichkeit1" : "A",
+    "antwortmoeglichkeit2" : "B",
+    "antwortmoeglichkeit3" : "C",
+    "antwortmoeglichkeit4" : "D",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true,
+    "flag_frageValidiert" : true
+   }
+  ]
+ }
+]
+</t>
+  </si>
+  <si>
+    <t>{
+ questions : [questions],
+ answers : [answers]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "questions" : [{
+   "fragenID" : 7,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 7",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }, {
+   "fragenID" : 8,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 8",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }, {
+   "fragenID" : 9,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk2",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 9",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }
+ ],
+ "answers" : [{
+   "fragenID" : 7,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }, {
+   "fragenID" : 8,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }, {
+   "fragenID" : 9,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }
+ ]
+}
+</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +773,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:O22"/>
+  <autoFilter ref="A4:O22">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="nein"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" name="Resource" dataDxfId="14"/>
     <tableColumn id="2" name="Param1" dataDxfId="13"/>
@@ -849,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -891,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -900,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
@@ -912,16 +1153,16 @@
         <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -929,37 +1170,37 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -968,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="1" t="s">
@@ -977,15 +1218,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -999,33 +1240,33 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -1034,10 +1275,10 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
@@ -1045,15 +1286,15 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1061,7 +1302,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -1070,21 +1311,21 @@
         <v>200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1092,7 +1333,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -1101,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>25</v>
@@ -1109,15 +1350,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1125,7 +1366,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>10</v>
@@ -1144,15 +1385,15 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -1166,10 +1407,10 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>19</v>
@@ -1177,15 +1418,15 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1193,7 +1434,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
@@ -1202,7 +1443,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
@@ -1210,15 +1451,15 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1232,53 +1473,53 @@
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="1" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1289,13 +1530,13 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>28</v>
@@ -1305,15 +1546,15 @@
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1325,7 +1566,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="1" t="s">
@@ -1334,15 +1575,15 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1350,7 +1591,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -1365,18 +1606,18 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1386,25 +1627,25 @@
         <v>9</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="6">
-        <v>200</v>
+      <c r="I19" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1412,33 +1653,35 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1447,30 +1690,26 @@
       <c r="G21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6">
+        <v>200</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1478,25 +1717,27 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -24,9 +24,6 @@
     <t>Param1</t>
   </si>
   <si>
-    <t>Param2</t>
-  </si>
-  <si>
     <t>Param3</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t>game/getGameOverview/{gameID}</t>
-  </si>
-  <si>
-    <t>game/sendRoundResult</t>
   </si>
   <si>
     <t>game/continueRound/{gameID}</t>
@@ -621,6 +615,12 @@
  ]
 }
 </t>
+  </si>
+  <si>
+    <t>Param example</t>
+  </si>
+  <si>
+    <t>game/submitRoundResult</t>
   </si>
 </sst>
 </file>
@@ -773,17 +773,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:O22">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="nein"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:O22"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Resource" dataDxfId="14"/>
     <tableColumn id="2" name="Param1" dataDxfId="13"/>
-    <tableColumn id="3" name="Param2" dataDxfId="12"/>
+    <tableColumn id="3" name="Param example" dataDxfId="12"/>
     <tableColumn id="4" name="Param3" dataDxfId="11"/>
     <tableColumn id="5" name="Param4" dataDxfId="10"/>
     <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
@@ -1090,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,57 +1106,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1170,63 +1164,63 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1234,67 +1228,67 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1302,30 +1296,30 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="6">
         <v>200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1333,32 +1327,32 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1366,67 +1360,67 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1434,32 +1428,32 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="6">
         <v>200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1467,30 +1461,30 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1498,28 +1492,28 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="8"/>
       <c r="K15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1527,34 +1521,34 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1562,28 +1556,28 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1591,61 +1585,61 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1653,42 +1647,42 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="6">
@@ -1696,20 +1690,20 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1717,31 +1711,31 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N15 N16:N22">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Context Root:</t>
   </si>
   <si>
-    <t>Param1</t>
-  </si>
-  <si>
-    <t>Param3</t>
-  </si>
-  <si>
-    <t>Param4</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -94,11 +85,6 @@
   </si>
   <si>
     <t>Um Popup 'Du spielst mit …' anzuzeigen</t>
-  </si>
-  <si>
-    <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
-UND
-Setzen des Feldes letzteAktivitaet</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -109,10 +95,6 @@
     <t>Erstellt ein Spiel (Anlegen des Spiels + 6 Runden) mit dem übergebenen Gegner (wenn Kategorienschnittmenge &gt;= 3, sonst Fehlermeldung).
 UND
 Sendet dem Gegner die Push-Benachrichtigung.</t>
-  </si>
-  <si>
-    <t>Daten der Rundenübersicht
-JOIN aus Runde, Frage, Antwort</t>
   </si>
   <si>
     <t>Liefert die Rundendaten sowie alle beantworteten Fragen und die Ergebnisse beider Spieler</t>
@@ -255,14 +237,6 @@
     <t>201/404/409</t>
   </si>
   <si>
-    <t>[friend_name]
-ALTERNATIV:
-[]</t>
-  </si>
-  <si>
-    <t>[user_name]</t>
-  </si>
-  <si>
     <t>user/search/{pattern}</t>
   </si>
   <si>
@@ -280,9 +254,6 @@
     <t>game/create/with/{opponent}</t>
   </si>
   <si>
-    <t>game/getGameOverview/{gameID}</t>
-  </si>
-  <si>
     <t>game/continueRound/{gameID}</t>
   </si>
   <si>
@@ -290,67 +261,6 @@
   </si>
   <si>
     <t>Returns / HTTP-Codes</t>
-  </si>
-  <si>
-    <t>[
-  {
-    "spielID": 1,
-    "spieltyp_name": {
-      "name": "M"
-    },
-    "spieler1": {
-      "benutzername": "spieler1",
-      "passwort_hash": null,
-      "push_id": null,
-      "letzteAktivitaet": null
-    },
-    "spieler2": {
-      "benutzername": "spieler2",
-      "passwort_hash": null,
-      "push_id": null,
-      "letzteAktivitaet": null
-    },
-    "sieger": {
-      "benutzername": "sieger",
-      "passwort_hash": null,
-      "push_id": null,
-      "letzteAktivitaet": null
-    },
-    "verlierer": {
-      "benutzername": "verlierer",
-      "passwort_hash": null,
-      "push_id": null,
-      "letzteAktivitaet": null
-    },
-    "wartenAuf": {
-      "benutzername": "wartenAuf",
-      "passwort_hash": null,
-      "push_id": null,
-      "letzteAktivitaet": null
-    },
-    "aktuelleRunde": 2,
-    "spielstatus_name": {
-      "name": "P"
-    },
-    "letzteAktivitaet": 1393354748762
-  },
-  {
-    "spielID": 2,
-    "spieltyp_name": {
-      "name": "S"
-    },
-    "spieler1": null,
-    "spieler2": null,
-    "sieger": null,
-    "verlierer": null,
-    "wartenAuf": null,
-    "aktuelleRunde": 0,
-    "spielstatus_name": {
-      "name": " "
-    },
-    "letzteAktivitaet": 1393354748762
-  }
-]</t>
   </si>
   <si>
     <t>Name des Gegners
@@ -361,9 +271,6 @@
   </si>
   <si>
     <t>flag_answer ("true"/"false")</t>
-  </si>
-  <si>
-    <t>200/404/406 (flag NOT IN ("true", "false")</t>
   </si>
   <si>
     <t>game/randomCategoriesFor/{gameID}</t>
@@ -617,10 +524,451 @@
 </t>
   </si>
   <si>
-    <t>Param example</t>
-  </si>
-  <si>
     <t>game/submitRoundResult</t>
+  </si>
+  <si>
+    <t>200/404/406 (flag NOT IN ("true", "false") OR (game has not curr. user as spieler2 or is not pending))</t>
+  </si>
+  <si>
+    <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
+UND
+Setzen der Felder push_id und letzteAktivitaet</t>
+  </si>
+  <si>
+    <t>game/overview/{gameID}</t>
+  </si>
+  <si>
+    <t>{
+rounds: [runden-antworten-fragen]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    [
+       {
+           "spielID": 1,
+           "spieltypName":
+           {
+               "name": "M"
+           },
+           "spieler1":
+           {
+               "benutzername": "Kevin02"
+           },
+           "spieler2":
+           {
+               "benutzername": "Kevin01"
+           },
+           "sieger": null,
+           "verlierer": null,
+           "wartenAuf":
+           {
+               "benutzername": "Kevin01"
+           },
+           "aktuelleRunde": 1,
+           "spielstatusName":
+           {
+               "name": "P"
+           },
+           "letzteAktivitaet": 1392739847000
+       }
+    ]
+</t>
+  </si>
+  <si>
+    <t>[userName]</t>
+  </si>
+  <si>
+    <t>[friend name]
+ALTERNATIV:
+[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    {
+       "rounds":
+       [
+           {
+               "rundenID": 1,
+               "rundenNr": 1,
+               "answers":
+               [
+                   {
+                       "frage":
+                       {
+                           "fragenID": 1,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 1 zu IT-Management",
+                           "flagFragenTypMult": false,
+                           "frage": "Welche Gase wurden behandelt?",
+                           "antwortmoeglichkeit1": "Exert",
+                           "antwortmoeglichkeit2": "Inert",
+                           "antwortmoeglichkeit3": "Exposé",
+                           "antwortmoeglichkeit4": "Imposé",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": true,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 1,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 1 zu IT-Management",
+                           "flagFragenTypMult": false,
+                           "frage": "Welche Gase wurden behandelt?",
+                           "antwortmoeglichkeit1": "Exert",
+                           "antwortmoeglichkeit2": "Inert",
+                           "antwortmoeglichkeit3": "Exposé",
+                           "antwortmoeglichkeit4": "Imposé",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": true,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": false
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 2,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 2 zu IT-Management",
+                           "flagFragenTypMult": true,
+                           "frage": "Was heißt/hieß RAID?",
+                           "antwortmoeglichkeit1": "Redundant Array of Independent Devices",
+                           "antwortmoeglichkeit2": "Redundant Array of Inexpensive Disks",
+                           "antwortmoeglichkeit3": "Redundant Array of Independent Disks",
+                           "antwortmoeglichkeit4": "Redundant Array of Inhuman Disks",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": true,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": true,
+                       "antwortmoeglichkeit3Check": true,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 2,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 2 zu IT-Management",
+                           "flagFragenTypMult": true,
+                           "frage": "Was heißt/hieß RAID?",
+                           "antwortmoeglichkeit1": "Redundant Array of Independent Devices",
+                           "antwortmoeglichkeit2": "Redundant Array of Inexpensive Disks",
+                           "antwortmoeglichkeit3": "Redundant Array of Independent Disks",
+                           "antwortmoeglichkeit4": "Redundant Array of Inhuman Disks",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": true,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": true,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": false
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 3,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 1 zu IT-Management",
+                           "flagFragenTypMult": false,
+                           "frage": "Wie ist Datenschutz anzuwenden?",
+                           "antwortmoeglichkeit1": "Erst dann, wenn es zu spät ist.",
+                           "antwortmoeglichkeit2": "Nach dem ersten Datenschutzbruch",
+                           "antwortmoeglichkeit3": "Präventiv",
+                           "antwortmoeglichkeit4": "Gar nicht",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": true,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": true,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 3,
+                           "kategorieName": "IT-Management",
+                           "unterkategorieName": "UK 1 zu IT-Management",
+                           "flagFragenTypMult": false,
+                           "frage": "Wie ist Datenschutz anzuwenden?",
+                           "antwortmoeglichkeit1": "Erst dann, wenn es zu spät ist.",
+                           "antwortmoeglichkeit2": "Nach dem ersten Datenschutzbruch",
+                           "antwortmoeglichkeit3": "Präventiv",
+                           "antwortmoeglichkeit4": "Gar nicht",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": true,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": true,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": false
+                   }
+               ]
+           },
+           {
+               "rundenID": 2,
+               "rundenNr": 2,
+               "answers":
+               [
+                   {
+                       "frage":
+                       {
+                           "fragenID": 4,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 1 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Was ist ein natives Sprachmittel in C",
+                           "antwortmoeglichkeit1": "Listen",
+                           "antwortmoeglichkeit2": "Queues",
+                           "antwortmoeglichkeit3": "LinkedLists",
+                           "antwortmoeglichkeit4": "Arrays",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": true
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": true,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 4,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 1 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Was ist ein natives Sprachmittel in C",
+                           "antwortmoeglichkeit1": "Listen",
+                           "antwortmoeglichkeit2": "Queues",
+                           "antwortmoeglichkeit3": "LinkedLists",
+                           "antwortmoeglichkeit4": "Arrays",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": true
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": true,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 5,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 2 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Welche Schleifen-Art gibt es in C++ nicht?",
+                           "antwortmoeglichkeit1": "For",
+                           "antwortmoeglichkeit2": "Do-Until",
+                           "antwortmoeglichkeit3": "While",
+                           "antwortmoeglichkeit4": "Do-While",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": false,
+                       "antwortmoeglichkeit2Check": true,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 5,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 2 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Welche Schleifen-Art gibt es in C++ nicht?",
+                           "antwortmoeglichkeit1": "For",
+                           "antwortmoeglichkeit2": "Do-Until",
+                           "antwortmoeglichkeit3": "While",
+                           "antwortmoeglichkeit4": "Do-While",
+                           "wahrheitAntwortmoeglichkeit1": false,
+                           "wahrheitAntwortmoeglichkeit2": true,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": true,
+                       "antwortmoeglichkeit2Check": true,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": false
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 6,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 1 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Welcher Assembly-Befehl kopiert register ax nach bx (Intel-Syntax)?",
+                           "antwortmoeglichkeit1": "mov bx,ax",
+                           "antwortmoeglichkeit2": "cpy bx,ax",
+                           "antwortmoeglichkeit3": "dup bx,ax",
+                           "antwortmoeglichkeit4": "copy bx,ax",
+                           "wahrheitAntwortmoeglichkeit1": true,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin01"
+                       },
+                       "antwortmoeglichkeit1Check": true,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   },
+                   {
+                       "frage":
+                       {
+                           "fragenID": 6,
+                           "kategorieName": "Programmierung",
+                           "unterkategorieName": "UK 1 zu Programmierung",
+                           "flagFragenTypMult": false,
+                           "frage": "Welcher Assembly-Befehl kopiert register ax nach bx (Intel-Syntax)?",
+                           "antwortmoeglichkeit1": "mov bx,ax",
+                           "antwortmoeglichkeit2": "cpy bx,ax",
+                           "antwortmoeglichkeit3": "dup bx,ax",
+                           "antwortmoeglichkeit4": "copy bx,ax",
+                           "wahrheitAntwortmoeglichkeit1": true,
+                           "wahrheitAntwortmoeglichkeit2": false,
+                           "wahrheitAntwortmoeglichkeit3": false,
+                           "wahrheitAntwortmoeglichkeit4": false
+                       },
+                       "benutzer":
+                       {
+                           "benutzername": "Kevin02"
+                       },
+                       "antwortmoeglichkeit1Check": true,
+                       "antwortmoeglichkeit2Check": false,
+                       "antwortmoeglichkeit3Check": false,
+                       "antwortmoeglichkeit4Check": false,
+                       "flagFrageAngezeigt": true,
+                       "ergebnisCheck": true
+                   }
+               ]
+           },
+           {
+               "rundenID": 3,
+               "rundenNr": 3,
+               "answers":
+               [
+               ]
+           },
+           {
+               "rundenID": 4,
+               "rundenNr": 4,
+               "answers":
+               [
+               ]
+           },
+           {
+               "rundenID": 5,
+               "rundenNr": 5,
+               "answers":
+               [
+               ]
+           },
+           {
+               "rundenID": 6,
+               "rundenNr": 6,
+               "answers":
+               [
+               ]
+           }
+       ]
+    }
+</t>
   </si>
 </sst>
 </file>
@@ -659,12 +1007,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -679,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -699,17 +1059,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -726,16 +1090,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -772,24 +1127,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:O22"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Resource" dataDxfId="14"/>
-    <tableColumn id="2" name="Param1" dataDxfId="13"/>
-    <tableColumn id="3" name="Param example" dataDxfId="12"/>
-    <tableColumn id="4" name="Param3" dataDxfId="11"/>
-    <tableColumn id="5" name="Param4" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A4:K22"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Resource" dataDxfId="10"/>
     <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
     <tableColumn id="7" name="Method" dataDxfId="8"/>
     <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
-    <tableColumn id="9" name="Returns / HTTP-Codes" dataDxfId="2"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="0"/>
-    <tableColumn id="10" name="Description" dataDxfId="1"/>
-    <tableColumn id="12" name="Prio" dataDxfId="6"/>
-    <tableColumn id="13" name="Kommentar" dataDxfId="5"/>
-    <tableColumn id="15" name="Umgesetzt" dataDxfId="4"/>
-    <tableColumn id="14" name="SpringSecurity" dataDxfId="3"/>
+    <tableColumn id="9" name="Returns / HTTP-Codes" dataDxfId="6"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="5"/>
+    <tableColumn id="10" name="Description" dataDxfId="4"/>
+    <tableColumn id="12" name="Prio" dataDxfId="3"/>
+    <tableColumn id="13" name="Kommentar" dataDxfId="2"/>
+    <tableColumn id="15" name="Umgesetzt" dataDxfId="1"/>
+    <tableColumn id="14" name="SpringSecurity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,661 +1433,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>42</v>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>42</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>42</v>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>43</v>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="6">
-        <v>200</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="6">
-        <v>200</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6">
-        <v>200</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>88</v>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N15 N16:N22">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1882,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>38</v>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Context Root:</t>
   </si>
@@ -167,9 +167,6 @@
 }</t>
   </si>
   <si>
-    <t>user/register</t>
-  </si>
-  <si>
     <t>SpringSecurity</t>
   </si>
   <si>
@@ -192,11 +189,6 @@
   </si>
   <si>
     <t>200 / 403</t>
-  </si>
-  <si>
-    <t>User
--&gt;Benutzername
--&gt;Passwort</t>
   </si>
   <si>
     <t>UserEntity
@@ -969,6 +961,18 @@
        ]
     }
 </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user/register/{name}</t>
+  </si>
+  <si>
+    <t>201 Spiel erstellt
+404 Spieler nicht gefunden
+409 Laufendes/Pending-Spiel mit gleichem Gegner
+406 Weniger als drei übereinstimmende Kategorien</t>
   </si>
 </sst>
 </file>
@@ -1435,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1471,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1489,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1517,12 +1521,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1531,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1548,7 +1552,7 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1558,13 +1562,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1577,10 +1581,10 @@
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1589,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="12"/>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1627,7 +1631,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>38</v>
@@ -1635,7 +1639,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1648,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1659,12 +1663,12 @@
         <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1695,7 +1699,7 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1705,10 +1709,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1724,7 +1728,7 @@
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1737,7 +1741,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1753,7 +1757,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1763,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1780,11 +1784,11 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1805,20 +1809,20 @@
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -1836,7 +1840,7 @@
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1844,7 +1848,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1852,7 +1856,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1861,7 +1865,7 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1871,10 +1875,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1890,17 +1894,17 @@
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1917,7 +1921,7 @@
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1927,10 +1931,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1938,7 +1942,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>38</v>
@@ -1946,7 +1950,7 @@
     </row>
     <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
@@ -1973,7 +1977,7 @@
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1983,10 +1987,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
@@ -1994,7 +1998,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>38</v>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>Context Root:</t>
   </si>
@@ -974,6 +974,12 @@
 409 Laufendes/Pending-Spiel mit gleichem Gegner
 406 Weniger als drei übereinstimmende Kategorien</t>
   </si>
+  <si>
+    <t>game/abandon/{gameId}</t>
+  </si>
+  <si>
+    <t>200/404</t>
+  </si>
 </sst>
 </file>
 
@@ -1075,7 +1081,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1131,8 +1137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A4:K22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A4:K23"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Resource" dataDxfId="10"/>
     <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
@@ -1151,9 +1157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1191,7 +1197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1263,7 +1269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1437,13 +1443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" customWidth="1"/>
@@ -2004,9 +2010,32 @@
         <v>38</v>
       </c>
     </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2024,7 +2053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2036,7 +2065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Liefert aus der Schnittmenge 3 zufällige Kategorien inkl. je 3 Fragen</t>
-  </si>
-  <si>
-    <t>[antwort-DS]</t>
   </si>
   <si>
     <t>Drei Antworten werden gesendet.
@@ -979,6 +976,16 @@
   </si>
   <si>
     <t>200/404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+  spielID : spielID,
+  runde : runde,
+  fragenID : fragenID,
+  richtig : richtig
+ }
+]
+</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1453,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1472,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1481,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1493,46 +1500,46 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1541,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1550,15 +1557,15 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1568,29 +1575,29 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1599,30 +1606,30 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1631,25 +1638,25 @@
         <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1658,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1666,19 +1673,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -1697,15 +1704,15 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1715,10 +1722,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1726,19 +1733,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1747,7 +1754,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1755,15 +1762,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1773,28 +1780,28 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1807,28 +1814,28 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -1838,15 +1845,15 @@
         <v>22</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1854,7 +1861,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1863,28 +1870,28 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1892,25 +1899,25 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1919,15 +1926,15 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1937,10 +1944,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1948,18 +1955,18 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1970,49 +1977,49 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2020,17 +2027,17 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>Context Root:</t>
   </si>
@@ -170,12 +170,6 @@
     <t>optional (ja)</t>
   </si>
   <si>
-    <t>user/login</t>
-  </si>
-  <si>
-    <t>Loggt einen Benutzer ein.</t>
-  </si>
-  <si>
     <t>user/logout/{username}</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
   </si>
   <si>
     <t>RequestBody</t>
-  </si>
-  <si>
-    <t>200 / 403</t>
   </si>
   <si>
     <t>UserEntity
@@ -987,12 +978,21 @@
 ]
 </t>
   </si>
+  <si>
+    <t>user/verifyCredentials</t>
+  </si>
+  <si>
+    <t>200 / 403 / 404</t>
+  </si>
+  <si>
+    <t>Testet, ob der Benutzer, sofern er registriert ist, sich mit dem richtigen Passwort ausgewiesen hat.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1019,19 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1056,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,9 +1099,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1164,9 +1185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1204,7 +1225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1276,7 +1297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1452,11 +1473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" customWidth="1"/>
@@ -1479,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1488,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1536,10 +1557,10 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1548,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1563,41 +1584,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="E7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1606,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="12"/>
@@ -1625,7 +1644,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1644,7 +1663,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>37</v>
@@ -1652,7 +1671,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1665,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1681,7 +1700,7 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1712,7 +1731,7 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1722,10 +1741,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1741,7 +1760,7 @@
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1754,7 +1773,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1770,7 +1789,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1780,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1797,11 +1816,11 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1822,20 +1841,20 @@
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -1853,7 +1872,7 @@
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1861,7 +1880,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1878,7 +1897,7 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1888,10 +1907,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1907,17 +1926,17 @@
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1934,7 +1953,7 @@
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1944,10 +1963,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1955,7 +1974,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>37</v>
@@ -1963,10 +1982,10 @@
     </row>
     <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1990,7 +2009,7 @@
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -2000,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
@@ -2011,7 +2030,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>37</v>
@@ -2019,7 +2038,7 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2027,7 +2046,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
@@ -2060,7 +2079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2072,7 +2091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -966,9 +966,6 @@
     <t>game/abandon/{gameId}</t>
   </si>
   <si>
-    <t>200/404</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{
   spielID : spielID,
   runde : runde,
@@ -979,13 +976,18 @@
 </t>
   </si>
   <si>
-    <t>user/verifyCredentials</t>
-  </si>
-  <si>
-    <t>200 / 403 / 404</t>
-  </si>
-  <si>
     <t>Testet, ob der Benutzer, sofern er registriert ist, sich mit dem richtigen Passwort ausgewiesen hat.</t>
+  </si>
+  <si>
+    <t>user/checkCredentials</t>
+  </si>
+  <si>
+    <t>200 / 401</t>
+  </si>
+  <si>
+    <t>200 Spiel ist nun aufgegeben
+404 Spiel wurde nicht gefunden
+406 Spiel war nicht aktiv oder pending</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1111,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1185,9 +1187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1225,7 +1227,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1297,7 +1299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1473,16 +1475,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1600,15 +1602,15 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1985,7 +1987,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2036,7 +2038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -2046,14 +2048,14 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>37</v>
@@ -2079,7 +2081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2091,7 +2093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8445"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="18915" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>user/stats</t>
   </si>
   <si>
-    <t>201 / 409</t>
-  </si>
-  <si>
     <t>Spiele: {
 Teilnahme(ich) &amp;&amp; status != CLOSED
 }
@@ -260,158 +257,6 @@
    categoryName : &lt;cat name&gt;,
    questions : [3x questions]
 ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{
-  "categoryName" : "Logik und Algebra",
-  "questions" : [{
-    "fragenID" : 1,
-    "kategorie_name" : "Logik und Algebra",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 1",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 2,
-    "kategorie_name" : "Logik und Algebra",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 2",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 3,
-    "kategorie_name" : "Logik und Algebra",
-    "unterkategorie_name" : "uk2",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 3",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }
-  ]
- }, {
-  "categoryName" : "Methoden der Wirtschaftsinformatik",
-  "questions" : [{
-    "fragenID" : 4,
-    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 4",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 5,
-    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 5",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 6,
-    "kategorie_name" : "Methoden der Wirtschaftsinformatik",
-    "unterkategorie_name" : "uk2",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 6",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }
-  ]
- }, {
-  "categoryName" : "Verteilte Systeme",
-  "questions" : [{
-    "fragenID" : 7,
-    "kategorie_name" : "Verteilte Systeme",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 7",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 8,
-    "kategorie_name" : "Verteilte Systeme",
-    "unterkategorie_name" : "uk",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 8",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }, {
-    "fragenID" : 9,
-    "kategorie_name" : "Verteilte Systeme",
-    "unterkategorie_name" : "uk2",
-    "flag_fragenTyp_mult" : false,
-    "frage" : "Frage 9",
-    "antwortmoeglichkeit1" : "A",
-    "antwortmoeglichkeit2" : "B",
-    "antwortmoeglichkeit3" : "C",
-    "antwortmoeglichkeit4" : "D",
-    "wahrheitAntwortmoeglichkeit1" : false,
-    "wahrheitAntwortmoeglichkeit2" : false,
-    "wahrheitAntwortmoeglichkeit3" : false,
-    "wahrheitAntwortmoeglichkeit4" : true,
-    "flag_frageValidiert" : true
-   }
-  ]
- }
-]
-</t>
   </si>
   <si>
     <t>{
@@ -518,11 +363,6 @@
     <t>game/overview/{gameID}</t>
   </si>
   <si>
-    <t>{
-rounds: [runden-antworten-fragen]
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve">
     [
        {
@@ -988,6 +828,179 @@
     <t>200 Spiel ist nun aufgegeben
 404 Spiel wurde nicht gefunden
 406 Spiel war nicht aktiv oder pending</t>
+  </si>
+  <si>
+    <t>{
+rounds: [runden-antworten-fragen]
+}
+200 OK
+404 Spiel nicht gefunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+  "categoryName" : "Wissenschaftliches Arbeiten",
+  "questions" : [{
+    "fragenID" : 23,
+    "kategorieName" : {
+     "name" : "Wissenschaftliches Arbeiten"
+    },
+    "unterkategorieName" : "UK 1 zu Wissenschaftliches Arbeiten",
+    "flagFragenTypMult" : false,
+    "frage" : "Wissenschaft",
+    "antwortmoeglichkeit1" : "1",
+    "antwortmoeglichkeit2" : "2",
+    "antwortmoeglichkeit3" : "3",
+    "antwortmoeglichkeit4" : "4",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }, {
+    "fragenID" : 28,
+    "kategorieName" : {
+     "name" : "Wissenschaftliches Arbeiten"
+    },
+    "unterkategorieName" : "UK 2 zu Wissenschaftliches Arbeiten",
+    "flagFragenTypMult" : false,
+    "frage" : "Was eine Wissenschaft dahinter :)",
+    "antwortmoeglichkeit1" : "false",
+    "antwortmoeglichkeit2" : "false",
+    "antwortmoeglichkeit3" : "true",
+    "antwortmoeglichkeit4" : "true",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : true,
+    "wahrheitAntwortmoeglichkeit4" : true
+   }, {
+    "fragenID" : 27,
+    "kategorieName" : {
+     "name" : "Wissenschaftliches Arbeiten"
+    },
+    "unterkategorieName" : "UK 2 zu Wissenschaftliches Arbeiten",
+    "flagFragenTypMult" : false,
+    "frage" : "Wissenschaftliches Arbeiten 2",
+    "antwortmoeglichkeit1" : "false",
+    "antwortmoeglichkeit2" : "false",
+    "antwortmoeglichkeit3" : "false",
+    "antwortmoeglichkeit4" : "false",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }
+  ]
+ }, {
+  "categoryName" : "Programmierung",
+  "questions" : [{
+    "fragenID" : 17,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 2 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Welche Personen haben Java entwickelt?",
+    "antwortmoeglichkeit1" : "true",
+    "antwortmoeglichkeit2" : "true",
+    "antwortmoeglichkeit3" : "true",
+    "antwortmoeglichkeit4" : "true",
+    "wahrheitAntwortmoeglichkeit1" : true,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : true,
+    "wahrheitAntwortmoeglichkeit4" : true
+   }, {
+    "fragenID" : 16,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 2 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Mit Welchen Farben kann man alle anderen erstellen?",
+    "antwortmoeglichkeit1" : "false",
+    "antwortmoeglichkeit2" : "true",
+    "antwortmoeglichkeit3" : "false",
+    "antwortmoeglichkeit4" : "false",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }, {
+    "fragenID" : 15,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 1 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Was ist richtig deklariert(JAVA)",
+    "antwortmoeglichkeit1" : "public int getHallo() {return hallo;}",
+    "antwortmoeglichkeit2" : "public void getHallo() {return hallo;}",
+    "antwortmoeglichkeit3" : "public void setHallo() {return hallo;}",
+    "antwortmoeglichkeit4" : "public void setHallo(int hallo) {this.hallo = hall",
+    "wahrheitAntwortmoeglichkeit1" : true,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true
+   }
+  ]
+ }, {
+  "categoryName" : "IT-Management",
+  "questions" : [{
+    "fragenID" : 1,
+    "kategorieName" : {
+     "name" : "IT-Management"
+    },
+    "unterkategorieName" : "UK 1 zu IT-Management",
+    "flagFragenTypMult" : false,
+    "frage" : "Welche Gase wurden behandelt?",
+    "antwortmoeglichkeit1" : "Exert",
+    "antwortmoeglichkeit2" : "Inert",
+    "antwortmoeglichkeit3" : "Exposé",
+    "antwortmoeglichkeit4" : "Imposé",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }, {
+    "fragenID" : 2,
+    "kategorieName" : {
+     "name" : "IT-Management"
+    },
+    "unterkategorieName" : "UK 2 zu IT-Management",
+    "flagFragenTypMult" : true,
+    "frage" : "Was heißt/hieß RAID?",
+    "antwortmoeglichkeit1" : "Redundant Array of Independent Devices",
+    "antwortmoeglichkeit2" : "Redundant Array of Inexpensive Disks",
+    "antwortmoeglichkeit3" : "Redundant Array of Independent Disks",
+    "antwortmoeglichkeit4" : "Redundant Array of Inhuman Disks",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : true,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }, {
+    "fragenID" : 3,
+    "kategorieName" : {
+     "name" : "IT-Management"
+    },
+    "unterkategorieName" : "UK 1 zu IT-Management",
+    "flagFragenTypMult" : false,
+    "frage" : "Wie ist Datenschutz anzuwenden?",
+    "antwortmoeglichkeit1" : "Erst dann, wenn es zu spät ist.",
+    "antwortmoeglichkeit2" : "Nach dem ersten Datenschutzbruch",
+    "antwortmoeglichkeit3" : "Präventiv",
+    "antwortmoeglichkeit4" : "Gar nicht",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : true,
+    "wahrheitAntwortmoeglichkeit4" : false
+   }
+  ]
+ }
+]
+</t>
+  </si>
+  <si>
+    <t>201 Benutzer angelegt
+409 Benutzer existiert bereits
+400 kein Passwort angegeben</t>
   </si>
 </sst>
 </file>
@@ -1095,9 +1108,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1109,9 +1119,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1187,9 +1200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1227,7 +1240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1299,7 +1312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,14 +1488,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
@@ -1511,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1559,10 +1573,10 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1571,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1586,30 +1600,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="E7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1627,17 +1641,17 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1673,7 +1687,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1686,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1733,7 +1747,7 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1743,10 +1757,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1762,7 +1776,7 @@
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1775,7 +1789,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1791,7 +1805,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1801,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1818,7 +1832,7 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1843,20 +1857,20 @@
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -1874,7 +1888,7 @@
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1882,7 +1896,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1890,16 +1904,16 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1909,10 +1923,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1928,17 +1942,17 @@
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1955,7 +1969,7 @@
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1965,10 +1979,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1976,18 +1990,18 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2011,7 +2025,7 @@
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -2021,10 +2035,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
@@ -2040,7 +2054,7 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2048,7 +2062,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
@@ -2081,7 +2095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2093,7 +2107,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -263,90 +263,6 @@
  questions : [questions],
  answers : [answers]
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "questions" : [{
-   "fragenID" : 7,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 7",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }, {
-   "fragenID" : 8,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 8",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }, {
-   "fragenID" : 9,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk2",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 9",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }
- ],
- "answers" : [{
-   "fragenID" : 7,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }, {
-   "fragenID" : 8,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }, {
-   "fragenID" : 9,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }
- ]
-}
-</t>
   </si>
   <si>
     <t>game/submitRoundResult</t>
@@ -1002,6 +918,91 @@
 409 Benutzer existiert bereits
 400 kein Passwort angegeben</t>
   </si>
+  <si>
+    <t xml:space="preserve">Request example:
+{
+ "questions" : [{
+   "fragenID" : 7,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 7",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }, {
+   "fragenID" : 8,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 8",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }, {
+   "fragenID" : 9,
+   "kategorie_name" : "Verteilte Systeme",
+   "unterkategorie_name" : "uk2",
+   "flag_fragenTyp_mult" : false,
+   "frage" : "Frage 9",
+   "antwortmoeglichkeit1" : "A",
+   "antwortmoeglichkeit2" : "B",
+   "antwortmoeglichkeit3" : "C",
+   "antwortmoeglichkeit4" : "D",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true,
+   "flag_frageValidiert" : true
+  }
+ ],
+ "answers" : [{
+   "fragenID" : 7,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }, {
+   "fragenID" : 8,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }, {
+   "fragenID" : 9,
+   "rundenID" : 21,
+   "benutzername" : "Kevin",
+   "antwortmoeglichkeit1_check" : false,
+   "antwortmoeglichkeit2_check" : false,
+   "antwortmoeglichkeit3_check" : false,
+   "antwortmoeglichkeit4_check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnis_check" : true
+  }
+ ]
+}
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1107,7 +1108,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1121,6 +1121,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,10 +1576,10 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1585,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1600,30 +1603,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1644,14 +1647,14 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1700,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1745,7 +1748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1904,7 +1907,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1913,7 +1916,7 @@
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1923,10 +1926,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1981,8 +1984,8 @@
       <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>89</v>
+      <c r="F20" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1996,12 +1999,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2023,7 +2026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2037,8 +2040,8 @@
       <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>70</v>
+      <c r="F22" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2062,7 +2065,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>settings/friends/{friend}</t>
-  </si>
-  <si>
-    <t>201/404/409</t>
   </si>
   <si>
     <t>user/search/{pattern}</t>
@@ -1003,6 +1000,11 @@
 }
 </t>
   </si>
+  <si>
+    <t>201 Freund hinzugefügt
+404 Person nicht gefunden
+409 schon befreundet oder Versuch, sich mit sich selbst zu befreunden</t>
+  </si>
 </sst>
 </file>
 
@@ -1127,7 +1129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1203,9 +1205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1243,7 +1245,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1315,7 +1317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1491,11 +1493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -1528,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1576,10 +1578,10 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1588,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1605,7 +1607,7 @@
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -1615,11 +1617,11 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1647,10 +1649,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10"/>
@@ -1690,7 +1692,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1703,7 +1705,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1750,7 +1752,7 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1792,7 +1794,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1806,7 +1808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1860,20 +1862,20 @@
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -1891,7 +1893,7 @@
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1899,7 +1901,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1916,7 +1918,7 @@
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1926,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1945,17 +1947,17 @@
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1972,7 +1974,7 @@
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1982,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -2001,10 +2003,10 @@
     </row>
     <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2028,7 +2030,7 @@
     </row>
     <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -2038,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
@@ -2057,7 +2059,7 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2065,7 +2067,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
@@ -2098,7 +2100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2110,7 +2112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>Context Root:</t>
   </si>
@@ -260,9 +260,6 @@
  questions : [questions],
  answers : [answers]
 }</t>
-  </si>
-  <si>
-    <t>game/submitRoundResult</t>
   </si>
   <si>
     <t>200/404/406 (flag NOT IN ("true", "false") OR (game has not curr. user as spieler2 or is not pending))</t>
@@ -717,16 +714,6 @@
   </si>
   <si>
     <t>game/abandon/{gameId}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{
-  spielID : spielID,
-  runde : runde,
-  fragenID : fragenID,
-  richtig : richtig
- }
-]
-</t>
   </si>
   <si>
     <t>Testet, ob der Benutzer, sofern er registriert ist, sich mit dem richtigen Passwort ausgewiesen hat.</t>
@@ -1005,6 +992,28 @@
 404 Person nicht gefunden
 409 schon befreundet oder Versuch, sich mit sich selbst zu befreunden</t>
   </si>
+  <si>
+    <t>game/submitRoundResult/{gameID}</t>
+  </si>
+  <si>
+    <t>[{
+  "runde" : value,
+  "fragenID" : value,
+  "antwortmoeglichkeit1Check" : bool,
+  "antwortmoeglichkeit2Check" : bool,
+  "antwortmoeglichkeit3Check" : bool,
+  "antwortmoeglichkeit4Check" : bool,
+  "ergebnisCheck" : bool
+ }
+]</t>
+  </si>
+  <si>
+    <t>200 OK
+403 ein nicht am Spiel partizipierender Spieler ruft diese Ressource auf
+404 das angegebene Spiel existiert nicht
+406 eine FragenID existiert nicht
+417 es wurden nicht genau drei "Datensätze" übergeben.</t>
+  </si>
 </sst>
 </file>
 
@@ -1124,9 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1493,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,10 +1585,10 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1590,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1607,7 +1614,7 @@
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -1617,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>37</v>
@@ -1649,10 +1656,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10"/>
@@ -1705,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1794,7 +1801,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1820,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1901,7 +1908,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
@@ -1918,7 +1925,7 @@
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1928,10 +1935,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
@@ -1957,7 +1964,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
@@ -1987,7 +1994,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -2001,19 +2008,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="6">
-        <v>200</v>
+      <c r="E21" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
@@ -2022,13 +2029,13 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>68</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
@@ -2059,7 +2066,7 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2067,7 +2074,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
@@ -2081,7 +2088,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Context Root:</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Liste gefundener Mitspieler, deren Name die gesuchte Phrase enthält (like '%abc%')</t>
-  </si>
-  <si>
-    <t>Um Popup 'Du spielst mit …' anzuzeigen</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -167,9 +164,6 @@
     <t>SpringSecurity</t>
   </si>
   <si>
-    <t>optional (ja)</t>
-  </si>
-  <si>
     <t>user/logout/{username}</t>
   </si>
   <si>
@@ -254,12 +248,6 @@
    categoryName : &lt;cat name&gt;,
    questions : [3x questions]
 ]</t>
-  </si>
-  <si>
-    <t>{
- questions : [questions],
- answers : [answers]
-}</t>
   </si>
   <si>
     <t>200/404/406 (flag NOT IN ("true", "false") OR (game has not curr. user as spieler2 or is not pending))</t>
@@ -717,12 +705,6 @@
   </si>
   <si>
     <t>Testet, ob der Benutzer, sofern er registriert ist, sich mit dem richtigen Passwort ausgewiesen hat.</t>
-  </si>
-  <si>
-    <t>user/checkCredentials</t>
-  </si>
-  <si>
-    <t>200 / 401</t>
   </si>
   <si>
     <t>200 Spiel ist nun aufgegeben
@@ -903,91 +885,6 @@
 400 kein Passwort angegeben</t>
   </si>
   <si>
-    <t xml:space="preserve">Request example:
-{
- "questions" : [{
-   "fragenID" : 7,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 7",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }, {
-   "fragenID" : 8,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 8",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }, {
-   "fragenID" : 9,
-   "kategorie_name" : "Verteilte Systeme",
-   "unterkategorie_name" : "uk2",
-   "flag_fragenTyp_mult" : false,
-   "frage" : "Frage 9",
-   "antwortmoeglichkeit1" : "A",
-   "antwortmoeglichkeit2" : "B",
-   "antwortmoeglichkeit3" : "C",
-   "antwortmoeglichkeit4" : "D",
-   "wahrheitAntwortmoeglichkeit1" : false,
-   "wahrheitAntwortmoeglichkeit2" : false,
-   "wahrheitAntwortmoeglichkeit3" : false,
-   "wahrheitAntwortmoeglichkeit4" : true,
-   "flag_frageValidiert" : true
-  }
- ],
- "answers" : [{
-   "fragenID" : 7,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }, {
-   "fragenID" : 8,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }, {
-   "fragenID" : 9,
-   "rundenID" : 21,
-   "benutzername" : "Kevin",
-   "antwortmoeglichkeit1_check" : false,
-   "antwortmoeglichkeit2_check" : false,
-   "antwortmoeglichkeit3_check" : false,
-   "antwortmoeglichkeit4_check" : true,
-   "flagFrageAngezeigt" : true,
-   "ergebnis_check" : true
-  }
- ]
-}
-</t>
-  </si>
-  <si>
     <t>201 Freund hinzugefügt
 404 Person nicht gefunden
 409 schon befreundet oder Versuch, sich mit sich selbst zu befreunden</t>
@@ -1013,6 +910,166 @@
 404 das angegebene Spiel existiert nicht
 406 eine FragenID existiert nicht
 417 es wurden nicht genau drei "Datensätze" übergeben.</t>
+  </si>
+  <si>
+    <t>{
+ questions : [questions],
+ answers : [answers]
+}
+200 OK
+404 Spiel existiert nicht oder keine Antworten des Gegners vorhanden</t>
+  </si>
+  <si>
+    <t>Serverseitige Prüfungen, ob aktueller Spielstatus diesen Aufruf erlaubt, nicht implementiert.</t>
+  </si>
+  <si>
+    <t>Logik der Methode veraltet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request example:
+{
+ "questions" : [{
+   "fragenID" : 4,
+   "kategorieName" : {
+    "name" : "Programmierung"
+   },
+   "unterkategorieName" : "UK 1 zu Programmierung",
+   "flagFragenTypMult" : false,
+   "frage" : "Was ist ein natives Sprachmittel in C",
+   "antwortmoeglichkeit1" : "Listen",
+   "antwortmoeglichkeit2" : "Queues",
+   "antwortmoeglichkeit3" : "LinkedLists",
+   "antwortmoeglichkeit4" : "Arrays",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : false,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : true
+  }, {
+   "fragenID" : 10,
+   "kategorieName" : {
+    "name" : "Programmierung"
+   },
+   "unterkategorieName" : "UK 2 zu Programmierung",
+   "flagFragenTypMult" : false,
+   "frage" : "Mit Welchen Farben kann man alle anderen erstellen?",
+   "antwortmoeglichkeit1" : "false",
+   "antwortmoeglichkeit2" : "true",
+   "antwortmoeglichkeit3" : "false",
+   "antwortmoeglichkeit4" : "false",
+   "wahrheitAntwortmoeglichkeit1" : false,
+   "wahrheitAntwortmoeglichkeit2" : true,
+   "wahrheitAntwortmoeglichkeit3" : false,
+   "wahrheitAntwortmoeglichkeit4" : false
+  }, {
+   "fragenID" : 11,
+   "kategorieName" : {
+    "name" : "Programmierung"
+   },
+   "unterkategorieName" : "UK 2 zu Programmierung",
+   "flagFragenTypMult" : false,
+   "frage" : "Welche Personen haben Java entwickelt?",
+   "antwortmoeglichkeit1" : "true",
+   "antwortmoeglichkeit2" : "true",
+   "antwortmoeglichkeit3" : "true",
+   "antwortmoeglichkeit4" : "true",
+   "wahrheitAntwortmoeglichkeit1" : true,
+   "wahrheitAntwortmoeglichkeit2" : true,
+   "wahrheitAntwortmoeglichkeit3" : true,
+   "wahrheitAntwortmoeglichkeit4" : true
+  }
+ ],
+ "answers" : [{
+   "frage" : {
+    "fragenID" : 4,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 1 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Was ist ein natives Sprachmittel in C",
+    "antwortmoeglichkeit1" : "Listen",
+    "antwortmoeglichkeit2" : "Queues",
+    "antwortmoeglichkeit3" : "LinkedLists",
+    "antwortmoeglichkeit4" : "Arrays",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : false,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : true
+   },
+   "benutzer" : {
+    "benutzername" : "Kevin01"
+   },
+   "antwortmoeglichkeit1Check" : false,
+   "antwortmoeglichkeit2Check" : false,
+   "antwortmoeglichkeit3Check" : false,
+   "antwortmoeglichkeit4Check" : true,
+   "flagFrageAngezeigt" : true,
+   "ergebnisCheck" : true
+  }, {
+   "frage" : {
+    "fragenID" : 10,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 2 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Mit Welchen Farben kann man alle anderen erstellen?",
+    "antwortmoeglichkeit1" : "false",
+    "antwortmoeglichkeit2" : "true",
+    "antwortmoeglichkeit3" : "false",
+    "antwortmoeglichkeit4" : "false",
+    "wahrheitAntwortmoeglichkeit1" : false,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : false,
+    "wahrheitAntwortmoeglichkeit4" : false
+   },
+   "benutzer" : {
+    "benutzername" : "Kevin01"
+   },
+   "antwortmoeglichkeit1Check" : false,
+   "antwortmoeglichkeit2Check" : true,
+   "antwortmoeglichkeit3Check" : false,
+   "antwortmoeglichkeit4Check" : false,
+   "flagFrageAngezeigt" : true,
+   "ergebnisCheck" : true
+  }, {
+   "frage" : {
+    "fragenID" : 11,
+    "kategorieName" : {
+     "name" : "Programmierung"
+    },
+    "unterkategorieName" : "UK 2 zu Programmierung",
+    "flagFragenTypMult" : false,
+    "frage" : "Welche Personen haben Java entwickelt?",
+    "antwortmoeglichkeit1" : "true",
+    "antwortmoeglichkeit2" : "true",
+    "antwortmoeglichkeit3" : "true",
+    "antwortmoeglichkeit4" : "true",
+    "wahrheitAntwortmoeglichkeit1" : true,
+    "wahrheitAntwortmoeglichkeit2" : true,
+    "wahrheitAntwortmoeglichkeit3" : true,
+    "wahrheitAntwortmoeglichkeit4" : true
+   },
+   "benutzer" : {
+    "benutzername" : "Kevin01"
+   },
+   "antwortmoeglichkeit1Check" : true,
+   "antwortmoeglichkeit2Check" : false,
+   "antwortmoeglichkeit3Check" : false,
+   "antwortmoeglichkeit4Check" : false,
+   "flagFrageAngezeigt" : true,
+   "ergebnisCheck" : false
+  }
+ ]
+}
+</t>
+  </si>
+  <si>
+    <t>user/checkCredentials/{name}</t>
+  </si>
+  <si>
+    <t>200 OK
+401 Benutzername, Pwd oder beides falsch</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1528,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1537,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1549,46 +1606,46 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1597,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1606,17 +1663,19 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
@@ -1624,27 +1683,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1653,30 +1712,30 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1685,25 +1744,25 @@
         <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1712,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1720,19 +1779,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -1751,15 +1810,15 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1769,10 +1828,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1780,19 +1839,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1801,7 +1860,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1809,15 +1868,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1827,28 +1886,28 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1861,46 +1920,46 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>37</v>
+      <c r="I16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1908,80 +1967,80 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1991,82 +2050,86 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2074,21 +2137,23 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Freund entfernen</t>
-  </si>
-  <si>
-    <t>Ergebnisliste</t>
   </si>
   <si>
     <t>Liste gefundener Mitspieler, deren Name die gesuchte Phrase enthält (like '%abc%')</t>
@@ -1071,6 +1068,10 @@
     <t>200 OK
 401 Benutzername, Pwd oder beides falsch</t>
   </si>
+  <si>
+    <t>Ergebnisliste
+200 OK</t>
+  </si>
 </sst>
 </file>
 
@@ -1193,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1269,9 +1270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1309,7 +1310,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1381,7 +1382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1558,10 +1559,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -1577,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1585,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1594,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1606,46 +1607,46 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1654,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1663,18 +1664,18 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>5</v>
@@ -1683,27 +1684,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1712,30 +1713,30 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1744,54 +1745,54 @@
         <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -1810,15 +1811,15 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1828,10 +1829,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1839,19 +1840,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1860,7 +1861,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1868,15 +1869,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1886,28 +1887,28 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1920,46 +1921,46 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1967,80 +1968,80 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -2050,86 +2051,86 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2137,19 +2138,19 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2172,7 +2173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2184,7 +2185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -877,11 +877,6 @@
 </t>
   </si>
   <si>
-    <t>201 Benutzer angelegt
-409 Benutzer existiert bereits
-400 kein Passwort angegeben</t>
-  </si>
-  <si>
     <t>201 Freund hinzugefügt
 404 Person nicht gefunden
 409 schon befreundet oder Versuch, sich mit sich selbst zu befreunden</t>
@@ -1072,6 +1067,12 @@
     <t>Ergebnisliste
 200 OK</t>
   </si>
+  <si>
+    <t>201 Benutzer angelegt
+406 Benutzernamen besteht nicht aus lediglich alphanumerischen Tokens
+409 Benutzer existiert bereits
+400 kein Passwort angegeben</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1270,9 +1271,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1310,7 +1311,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1382,7 +1383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1558,11 +1559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -1641,7 +1642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1672,7 +1673,7 @@
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>72</v>
@@ -1684,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
@@ -1769,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>69</v>
@@ -1887,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
@@ -1949,7 +1950,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>35</v>
@@ -2070,17 +2071,17 @@
     </row>
     <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
@@ -2088,7 +2089,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>35</v>
@@ -2109,17 +2110,17 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>35</v>
@@ -2144,7 +2145,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>35</v>
@@ -2173,7 +2174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2185,7 +2186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Phasen/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>Context Root:</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Übertragt den Auswahlstatus aller Kategorien</t>
-  </si>
-  <si>
-    <t>[{kategorie_name, aktiv_flag}]</t>
   </si>
   <si>
     <t>PUT</t>
@@ -989,6 +986,57 @@
 404 Spiel wurde nicht gefunden
 406 Spiel war nicht aktiv oder pending</t>
   </si>
+  <si>
+    <t>[{kategorie_name, aktiv_flag}]
+Beispiel:
+[{
+  "kategorieName" : {
+   "name" : "IT-Management"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }, {
+  "kategorieName" : {
+   "name" : "Logik und Algebra"
+  },
+  "kategorieAusgewaehltCheck" : false
+ }
+]</t>
+  </si>
+  <si>
+    <t>settings/getCategories</t>
+  </si>
+  <si>
+    <t>[{
+  "kategorieName" : {
+   "name" : "IT-Management"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }, {
+  "kategorieName" : {
+   "name" : "Logik und Algebra"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }, {
+  "kategorieName" : {
+   "name" : "Programmierung"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }, {
+  "kategorieName" : {
+   "name" : "Projektmanagement"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }, {
+  "kategorieName" : {
+   "name" : "Wissenschaftliches Arbeiten"
+  },
+  "kategorieAusgewaehltCheck" : true
+ }
+]</t>
+  </si>
+  <si>
+    <t>Liefert alle möglichen Kategorien und den Status (aktiviert/deaktiviert) des aktuell angemeldeten Nutzers zurück.</t>
+  </si>
 </sst>
 </file>
 
@@ -1039,18 +1087,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1071,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,11 +1133,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1109,6 +1148,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1167,8 +1218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A4:K23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A4:K24"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Resource" dataDxfId="10"/>
     <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
@@ -1473,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1502,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1511,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1523,55 +1574,55 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
@@ -1580,45 +1631,45 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>37</v>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1627,86 +1678,86 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>37</v>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="21">
         <v>200</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -1725,28 +1776,28 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1754,316 +1805,345 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>200</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
+      <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="E14" s="6">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>37</v>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>37</v>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:11" s="17" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>37</v>
+      <c r="J18" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6">
-        <v>200</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J24">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>
